--- a/Code/Results/Cases/Case_3_109/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_109/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.067636007575288</v>
+        <v>0.6615872312322892</v>
       </c>
       <c r="C2">
-        <v>0.5062088451196871</v>
+        <v>0.188700032303899</v>
       </c>
       <c r="D2">
-        <v>0.07207636052297062</v>
+        <v>0.02282370822750579</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.252840715788949</v>
+        <v>0.2863447698869095</v>
       </c>
       <c r="G2">
-        <v>0.153992184460769</v>
+        <v>0.1502701152003141</v>
       </c>
       <c r="H2">
-        <v>0.1347697001135444</v>
+        <v>0.3197164537272386</v>
       </c>
       <c r="I2">
-        <v>0.069371635846462</v>
+        <v>0.2047964974952876</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8806558636038773</v>
+        <v>0.8159831952810066</v>
       </c>
       <c r="O2">
-        <v>0.5603320727391434</v>
+        <v>0.8388828661067009</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.808180368689847</v>
+        <v>0.5775129746917571</v>
       </c>
       <c r="C3">
-        <v>0.4492865527163872</v>
+        <v>0.1698607710714839</v>
       </c>
       <c r="D3">
-        <v>0.06285039386230551</v>
+        <v>0.01989670184102721</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2299649918094246</v>
+        <v>0.2835585504525113</v>
       </c>
       <c r="G3">
-        <v>0.1391745921833731</v>
+        <v>0.1486296955100741</v>
       </c>
       <c r="H3">
-        <v>0.1324300889759087</v>
+        <v>0.3220292755788705</v>
       </c>
       <c r="I3">
-        <v>0.07380625884980319</v>
+        <v>0.208827885884288</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8412018479293835</v>
+        <v>0.804681593931349</v>
       </c>
       <c r="O3">
-        <v>0.5237331662176814</v>
+        <v>0.8400333483516533</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.648488076858854</v>
+        <v>0.5256859433023635</v>
       </c>
       <c r="C4">
-        <v>0.4142268056274077</v>
+        <v>0.1582286510992787</v>
       </c>
       <c r="D4">
-        <v>0.05717818192049862</v>
+        <v>0.0180940746111915</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2164601084894926</v>
+        <v>0.2820944199426165</v>
       </c>
       <c r="G4">
-        <v>0.1305290015374325</v>
+        <v>0.1477947510039002</v>
       </c>
       <c r="H4">
-        <v>0.1313092249142898</v>
+        <v>0.3236329978720178</v>
       </c>
       <c r="I4">
-        <v>0.07689410192210921</v>
+        <v>0.2114812982298702</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.817599745257354</v>
+        <v>0.7980274380249739</v>
       </c>
       <c r="O4">
-        <v>0.5028738319971637</v>
+        <v>0.8414819075362772</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.583308527990539</v>
+        <v>0.5045161983776723</v>
       </c>
       <c r="C5">
-        <v>0.3999111344691642</v>
+        <v>0.1534725908710186</v>
       </c>
       <c r="D5">
-        <v>0.0548644954265356</v>
+        <v>0.0173581735593018</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2110845084339914</v>
+        <v>0.2815597426138652</v>
       </c>
       <c r="G5">
-        <v>0.1271121146140644</v>
+        <v>0.1474976979942966</v>
       </c>
       <c r="H5">
-        <v>0.1309284951910001</v>
+        <v>0.3243327105834197</v>
       </c>
       <c r="I5">
-        <v>0.07824024395425155</v>
+        <v>0.2126072918848223</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8081326578182058</v>
+        <v>0.7953879915046542</v>
       </c>
       <c r="O5">
-        <v>0.4947560225227363</v>
+        <v>0.8422585640705904</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.572479068761197</v>
+        <v>0.5009980219919044</v>
       </c>
       <c r="C6">
-        <v>0.3975322754322974</v>
+        <v>0.1526819035991025</v>
       </c>
       <c r="D6">
-        <v>0.05448016607972761</v>
+        <v>0.0172358997609976</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2101993742286226</v>
+        <v>0.2814747011655143</v>
       </c>
       <c r="G6">
-        <v>0.1265509467911627</v>
+        <v>0.1474509776035191</v>
       </c>
       <c r="H6">
-        <v>0.1308697720582188</v>
+        <v>0.3244516868229539</v>
       </c>
       <c r="I6">
-        <v>0.07846896098927481</v>
+        <v>0.2127969599684434</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.806569613385534</v>
+        <v>0.794954087231531</v>
       </c>
       <c r="O6">
-        <v>0.4934305165980675</v>
+        <v>0.8423987749908832</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.64760947077994</v>
+        <v>0.5254006400535332</v>
       </c>
       <c r="C7">
-        <v>0.4140338563691159</v>
+        <v>0.1581645729611125</v>
       </c>
       <c r="D7">
-        <v>0.05714698814349362</v>
+        <v>0.01808415525296425</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2163871047074579</v>
+        <v>0.2820869582545313</v>
       </c>
       <c r="G7">
-        <v>0.1304824996797862</v>
+        <v>0.1477905701231208</v>
       </c>
       <c r="H7">
-        <v>0.1313037867376892</v>
+        <v>0.3236422474430611</v>
       </c>
       <c r="I7">
-        <v>0.07691190600381859</v>
+        <v>0.2114963028701933</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8174714648177854</v>
+        <v>0.7979915486323108</v>
       </c>
       <c r="O7">
-        <v>0.5027628331789913</v>
+        <v>0.8414916275979039</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.978251417968039</v>
+        <v>0.6326420283974414</v>
       </c>
       <c r="C8">
-        <v>0.4866040098336555</v>
+        <v>0.1822179266479509</v>
       </c>
       <c r="D8">
-        <v>0.06889657337147526</v>
+        <v>0.02181563358323046</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2448358229093444</v>
+        <v>0.2853328658738334</v>
       </c>
       <c r="G8">
-        <v>0.1487845511657895</v>
+        <v>0.1496686643855369</v>
       </c>
       <c r="H8">
-        <v>0.1338954308864118</v>
+        <v>0.3204758029657384</v>
       </c>
       <c r="I8">
-        <v>0.07082252451977311</v>
+        <v>0.2061495006915326</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8669193434195677</v>
+        <v>0.8120275249493716</v>
       </c>
       <c r="O8">
-        <v>0.5473639902620562</v>
+        <v>0.8391253561090082</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.623943678886747</v>
+        <v>0.8412468276662821</v>
       </c>
       <c r="C9">
-        <v>0.6281086581697934</v>
+        <v>0.2288572764969103</v>
       </c>
       <c r="D9">
-        <v>0.09189606832067199</v>
+        <v>0.02908805310548956</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3053060796565319</v>
+        <v>0.293657839131356</v>
       </c>
       <c r="G9">
-        <v>0.1886194572007511</v>
+        <v>0.1547247636158673</v>
       </c>
       <c r="H9">
-        <v>0.1416398915195103</v>
+        <v>0.3157234491850076</v>
       </c>
       <c r="I9">
-        <v>0.06196144609159582</v>
+        <v>0.1970813996644072</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.969103551450317</v>
+        <v>0.8417945568806431</v>
       </c>
       <c r="O9">
-        <v>0.6487034329727521</v>
+        <v>0.8403870249187122</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.097284270191835</v>
+        <v>0.9933982818477034</v>
       </c>
       <c r="C10">
-        <v>0.7316862474355901</v>
+        <v>0.2627828106576828</v>
       </c>
       <c r="D10">
-        <v>0.1087958427714284</v>
+        <v>0.03440162092563526</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3531578188884694</v>
+        <v>0.3009741935003376</v>
       </c>
       <c r="G10">
-        <v>0.2208071282307813</v>
+        <v>0.1592858169774658</v>
       </c>
       <c r="H10">
-        <v>0.14918193368419</v>
+        <v>0.3131202719518029</v>
       </c>
       <c r="I10">
-        <v>0.05759431217968825</v>
+        <v>0.1912876775211103</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.047770773522828</v>
+        <v>0.8650086772045285</v>
       </c>
       <c r="O10">
-        <v>0.7331920783196608</v>
+        <v>0.8449320818470341</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.312537741096492</v>
+        <v>1.062359323261319</v>
       </c>
       <c r="C11">
-        <v>0.778749184715565</v>
+        <v>0.2781389207150085</v>
       </c>
       <c r="D11">
-        <v>0.1164909102605236</v>
+        <v>0.03681209182119005</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3758029722021661</v>
+        <v>0.3045643417628128</v>
       </c>
       <c r="G11">
-        <v>0.2362046297826339</v>
+        <v>0.1615465268500031</v>
       </c>
       <c r="H11">
-        <v>0.1530685939669638</v>
+        <v>0.3121289647803067</v>
       </c>
       <c r="I11">
-        <v>0.05613426816638878</v>
+        <v>0.188841585576963</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.084435950517246</v>
+        <v>0.8758567141804292</v>
       </c>
       <c r="O11">
-        <v>0.774173933770868</v>
+        <v>0.8477897700012988</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.394050561223253</v>
+        <v>1.088435018808752</v>
       </c>
       <c r="C12">
-        <v>0.7965650009570595</v>
+        <v>0.2839424681983189</v>
       </c>
       <c r="D12">
-        <v>0.1194064133344455</v>
+        <v>0.03772386537275452</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3845158272200564</v>
+        <v>0.3059615648615974</v>
       </c>
       <c r="G12">
-        <v>0.2421544043531298</v>
+        <v>0.1624294691628592</v>
       </c>
       <c r="H12">
-        <v>0.1546106056038496</v>
+        <v>0.3117813207257498</v>
       </c>
       <c r="I12">
-        <v>0.05566250594635846</v>
+        <v>0.1879426520683509</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.098454947999414</v>
+        <v>0.8800055340223167</v>
       </c>
       <c r="O12">
-        <v>0.7900912446274475</v>
+        <v>0.8489858306335094</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.376495082139684</v>
+        <v>1.082820887443688</v>
       </c>
       <c r="C13">
-        <v>0.7927282740542125</v>
+        <v>0.2826930878401015</v>
       </c>
       <c r="D13">
-        <v>0.1187784304027133</v>
+        <v>0.03752754486339427</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3826330471304402</v>
+        <v>0.3056589698373742</v>
       </c>
       <c r="G13">
-        <v>0.2408675447890971</v>
+        <v>0.1622381150015926</v>
       </c>
       <c r="H13">
-        <v>0.1542753054633295</v>
+        <v>0.311854958165668</v>
       </c>
       <c r="I13">
-        <v>0.05576041132027498</v>
+        <v>0.1881350355964653</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.095429578520267</v>
+        <v>0.8791101998937734</v>
       </c>
       <c r="O13">
-        <v>0.7866449196937566</v>
+        <v>0.8487231664324639</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.319243761630673</v>
+        <v>1.064505366044727</v>
       </c>
       <c r="C14">
-        <v>0.7802150085182404</v>
+        <v>0.2786166145941991</v>
       </c>
       <c r="D14">
-        <v>0.1167307364407293</v>
+        <v>0.03688712473451972</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3765169576643004</v>
+        <v>0.3046785360630366</v>
       </c>
       <c r="G14">
-        <v>0.2366916727235804</v>
+        <v>0.1616186279617366</v>
       </c>
       <c r="H14">
-        <v>0.1531940211618235</v>
+        <v>0.3120998078679094</v>
       </c>
       <c r="I14">
-        <v>0.05609379820363003</v>
+        <v>0.1887670811121609</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.085586553285125</v>
+        <v>0.8761972230713297</v>
       </c>
       <c r="O14">
-        <v>0.7754752865870387</v>
+        <v>0.8478858858903777</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.284176156958495</v>
+        <v>1.053281528789569</v>
       </c>
       <c r="C15">
-        <v>0.7725495675695413</v>
+        <v>0.2761181492976732</v>
       </c>
       <c r="D15">
-        <v>0.1154766817953856</v>
+        <v>0.03649471447552344</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3727889513701683</v>
+        <v>0.3040829047342157</v>
       </c>
       <c r="G15">
-        <v>0.2341496587771985</v>
+        <v>0.1612426762299606</v>
       </c>
       <c r="H15">
-        <v>0.1525409911973412</v>
+        <v>0.3122533984074707</v>
       </c>
       <c r="I15">
-        <v>0.05630873722862262</v>
+        <v>0.189157791719607</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.079575211005135</v>
+        <v>0.8744182532360867</v>
       </c>
       <c r="O15">
-        <v>0.7686864252355718</v>
+        <v>0.8473878713882783</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.083216453124294</v>
+        <v>0.9888862525637023</v>
       </c>
       <c r="C16">
-        <v>0.728609634106391</v>
+        <v>0.2617776702963681</v>
       </c>
       <c r="D16">
-        <v>0.1082931405952223</v>
+        <v>0.03424395139386149</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3516965235339171</v>
+        <v>0.3007448433851678</v>
       </c>
       <c r="G16">
-        <v>0.2198169439839717</v>
+        <v>0.1591418257863069</v>
       </c>
       <c r="H16">
-        <v>0.1489374963540442</v>
+        <v>0.3131889381018382</v>
       </c>
       <c r="I16">
-        <v>0.05770078127787315</v>
+        <v>0.1914513570581846</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.045393003902376</v>
+        <v>0.8643054826042373</v>
       </c>
       <c r="O16">
-        <v>0.7305677787882274</v>
+        <v>0.8447612500049928</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.959923590557594</v>
+        <v>0.9493155673989122</v>
       </c>
       <c r="C17">
-        <v>0.7016411834827636</v>
+        <v>0.2529602734230707</v>
       </c>
       <c r="D17">
-        <v>0.1038884813428211</v>
+        <v>0.03286142564091676</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3389896425391044</v>
+        <v>0.2987641669610426</v>
       </c>
       <c r="G17">
-        <v>0.2112249801293942</v>
+        <v>0.1579007219020099</v>
       </c>
       <c r="H17">
-        <v>0.1468468461672217</v>
+        <v>0.3138122691027121</v>
       </c>
       <c r="I17">
-        <v>0.05869338418246528</v>
+        <v>0.1929069911525882</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.024654216471887</v>
+        <v>0.8581749963170751</v>
       </c>
       <c r="O17">
-        <v>0.7078579476633422</v>
+        <v>0.8433524848679355</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.889001330361225</v>
+        <v>0.926531817040825</v>
       </c>
       <c r="C18">
-        <v>0.6861243315005652</v>
+        <v>0.2478815385548501</v>
       </c>
       <c r="D18">
-        <v>0.1013556907340671</v>
+        <v>0.03206560634355071</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3317628181723151</v>
+        <v>0.2976495828221459</v>
       </c>
       <c r="G18">
-        <v>0.2063535284173597</v>
+        <v>0.1572043582929652</v>
       </c>
       <c r="H18">
-        <v>0.1456869611577858</v>
+        <v>0.3141889481701554</v>
       </c>
       <c r="I18">
-        <v>0.05931352862445038</v>
+        <v>0.1937620643096984</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.012808031402187</v>
+        <v>0.8546760221011738</v>
       </c>
       <c r="O18">
-        <v>0.6950336191879671</v>
+        <v>0.8426165526518474</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.864986660998682</v>
+        <v>0.9188136118387433</v>
       </c>
       <c r="C19">
-        <v>0.680869621565563</v>
+        <v>0.2461607426611181</v>
       </c>
       <c r="D19">
-        <v>0.1004982287079912</v>
+        <v>0.03179604962157612</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3293296553570926</v>
+        <v>0.297276435618528</v>
       </c>
       <c r="G19">
-        <v>0.2047159231124382</v>
+        <v>0.1569715807657843</v>
       </c>
       <c r="H19">
-        <v>0.1453014224893749</v>
+        <v>0.3143196033093716</v>
       </c>
       <c r="I19">
-        <v>0.05953179327340052</v>
+        <v>0.1940546368584357</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.008810993060806</v>
+        <v>0.8534960021557367</v>
       </c>
       <c r="O19">
-        <v>0.6907314112061442</v>
+        <v>0.8423801395560986</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.973049020316921</v>
+        <v>0.9535304051382241</v>
       </c>
       <c r="C20">
-        <v>0.7045125569689787</v>
+        <v>0.2538996488564464</v>
       </c>
       <c r="D20">
-        <v>0.1043572937322779</v>
+        <v>0.03300866317216844</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3403337606073933</v>
+        <v>0.2989724619415384</v>
       </c>
       <c r="G20">
-        <v>0.2121322472151448</v>
+        <v>0.158031028766743</v>
       </c>
       <c r="H20">
-        <v>0.1470649572560987</v>
+        <v>0.3137440353844241</v>
       </c>
       <c r="I20">
-        <v>0.05858258700331653</v>
+        <v>0.1927501902697362</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.026853328208702</v>
+        <v>0.8588247938183571</v>
       </c>
       <c r="O20">
-        <v>0.7102506137268989</v>
+        <v>0.8434947529715799</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.336059740223163</v>
+        <v>1.069886134799731</v>
       </c>
       <c r="C21">
-        <v>0.7838906008496735</v>
+        <v>0.279814288588625</v>
       </c>
       <c r="D21">
-        <v>0.1173321476242677</v>
+        <v>0.03707525976754766</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.3783095714620117</v>
+        <v>0.3049654893457756</v>
       </c>
       <c r="G21">
-        <v>0.2379149094286106</v>
+        <v>0.1617998562795648</v>
       </c>
       <c r="H21">
-        <v>0.1535096762525257</v>
+        <v>0.3120271366156189</v>
       </c>
       <c r="I21">
-        <v>0.05599362824934495</v>
+        <v>0.188580691014522</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.088473964482404</v>
+        <v>0.8770517286964719</v>
       </c>
       <c r="O21">
-        <v>0.7787450025644915</v>
+        <v>0.8481287214794264</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.573320022265591</v>
+        <v>1.145706888182247</v>
       </c>
       <c r="C22">
-        <v>0.8357354601112377</v>
+        <v>0.2966838986110645</v>
       </c>
       <c r="D22">
-        <v>0.1258212436613491</v>
+        <v>0.03972704729879695</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4039369558931725</v>
+        <v>0.3091021148729993</v>
       </c>
       <c r="G22">
-        <v>0.2554647268395271</v>
+        <v>0.1644196273738032</v>
       </c>
       <c r="H22">
-        <v>0.1581333218480054</v>
+        <v>0.3110667503033326</v>
       </c>
       <c r="I22">
-        <v>0.05477716230488028</v>
+        <v>0.1860151348963921</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.129535891526757</v>
+        <v>0.8892022808718139</v>
       </c>
       <c r="O22">
-        <v>0.8258482513244303</v>
+        <v>0.851821413065835</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.446684678058205</v>
+        <v>1.105261092587284</v>
       </c>
       <c r="C23">
-        <v>0.808067206400608</v>
+        <v>0.2876865543257452</v>
       </c>
       <c r="D23">
-        <v>0.1212894301555423</v>
+        <v>0.03831230313872425</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.3901812400741704</v>
+        <v>0.3068741887903741</v>
       </c>
       <c r="G23">
-        <v>0.2460304476781019</v>
+        <v>0.1630070314580507</v>
       </c>
       <c r="H23">
-        <v>0.1556263122639407</v>
+        <v>0.3115645288870965</v>
       </c>
       <c r="I23">
-        <v>0.05538103978677178</v>
+        <v>0.1873697982358653</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.107545283734879</v>
+        <v>0.8826956662326779</v>
       </c>
       <c r="O23">
-        <v>0.8004833507486921</v>
+        <v>0.8497896893735515</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.967115137556732</v>
+        <v>0.9516249828677701</v>
       </c>
       <c r="C24">
-        <v>0.7032144475723499</v>
+        <v>0.2534749867685093</v>
       </c>
       <c r="D24">
-        <v>0.1041453452250778</v>
+        <v>0.03294210015404531</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3397258410846362</v>
+        <v>0.2988782166130264</v>
       </c>
       <c r="G24">
-        <v>0.2117218601775051</v>
+        <v>0.1579720635810702</v>
       </c>
       <c r="H24">
-        <v>0.146966218583799</v>
+        <v>0.3137748267904428</v>
       </c>
       <c r="I24">
-        <v>0.05863252468243552</v>
+        <v>0.1928210232350143</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.025858871135739</v>
+        <v>0.8585309408261281</v>
       </c>
       <c r="O24">
-        <v>0.7091681696221883</v>
+        <v>0.8434302031271272</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.449496910433766</v>
+        <v>0.7850031685738372</v>
       </c>
       <c r="C25">
-        <v>0.5899038592091586</v>
+        <v>0.2162985931587116</v>
       </c>
       <c r="D25">
-        <v>0.08567580223518689</v>
+        <v>0.02712569950052313</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.2883888881640218</v>
+        <v>0.2911953554688083</v>
       </c>
       <c r="G25">
-        <v>0.1773690452243812</v>
+        <v>0.1532089888308619</v>
       </c>
       <c r="H25">
-        <v>0.1392368413202689</v>
+        <v>0.3168530867345538</v>
       </c>
       <c r="I25">
-        <v>0.0640022040887267</v>
+        <v>0.199382368038064</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9408604218461818</v>
+        <v>0.8335040865935071</v>
       </c>
       <c r="O25">
-        <v>0.6196450655479424</v>
+        <v>0.8394117711048068</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_109/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_109/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6615872312322892</v>
+        <v>2.06763600757526</v>
       </c>
       <c r="C2">
-        <v>0.188700032303899</v>
+        <v>0.5062088451198861</v>
       </c>
       <c r="D2">
-        <v>0.02282370822750579</v>
+        <v>0.0720763605230843</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2863447698869095</v>
+        <v>0.2528407157889418</v>
       </c>
       <c r="G2">
-        <v>0.1502701152003141</v>
+        <v>0.1539921844607548</v>
       </c>
       <c r="H2">
-        <v>0.3197164537272386</v>
+        <v>0.1347697001134307</v>
       </c>
       <c r="I2">
-        <v>0.2047964974952876</v>
+        <v>0.069371635846462</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8159831952810066</v>
+        <v>0.8806558636039341</v>
       </c>
       <c r="O2">
-        <v>0.8388828661067009</v>
+        <v>0.5603320727390866</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5775129746917571</v>
+        <v>1.808180368689847</v>
       </c>
       <c r="C3">
-        <v>0.1698607710714839</v>
+        <v>0.4492865527161598</v>
       </c>
       <c r="D3">
-        <v>0.01989670184102721</v>
+        <v>0.0628503938622984</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2835585504525113</v>
+        <v>0.2299649918093962</v>
       </c>
       <c r="G3">
-        <v>0.1486296955100741</v>
+        <v>0.13917459218343</v>
       </c>
       <c r="H3">
-        <v>0.3220292755788705</v>
+        <v>0.1324300889759016</v>
       </c>
       <c r="I3">
-        <v>0.208827885884288</v>
+        <v>0.07380625884980319</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.804681593931349</v>
+        <v>0.8412018479294403</v>
       </c>
       <c r="O3">
-        <v>0.8400333483516533</v>
+        <v>0.5237331662176814</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5256859433023635</v>
+        <v>1.648488076858797</v>
       </c>
       <c r="C4">
-        <v>0.1582286510992787</v>
+        <v>0.4142268056274077</v>
       </c>
       <c r="D4">
-        <v>0.0180940746111915</v>
+        <v>0.05717818192037782</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2820944199426165</v>
+        <v>0.2164601084894642</v>
       </c>
       <c r="G4">
-        <v>0.1477947510039002</v>
+        <v>0.130529001537397</v>
       </c>
       <c r="H4">
-        <v>0.3236329978720178</v>
+        <v>0.131309224914304</v>
       </c>
       <c r="I4">
-        <v>0.2114812982298702</v>
+        <v>0.07689410192210921</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7980274380249739</v>
+        <v>0.817599745257354</v>
       </c>
       <c r="O4">
-        <v>0.8414819075362772</v>
+        <v>0.5028738319971353</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5045161983776723</v>
+        <v>1.583308527990567</v>
       </c>
       <c r="C5">
-        <v>0.1534725908710186</v>
+        <v>0.3999111344689652</v>
       </c>
       <c r="D5">
-        <v>0.0173581735593018</v>
+        <v>0.05486449542647165</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2815597426138652</v>
+        <v>0.2110845084339914</v>
       </c>
       <c r="G5">
-        <v>0.1474976979942966</v>
+        <v>0.1271121146140572</v>
       </c>
       <c r="H5">
-        <v>0.3243327105834197</v>
+        <v>0.1309284951908722</v>
       </c>
       <c r="I5">
-        <v>0.2126072918848223</v>
+        <v>0.07824024395423734</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7953879915046542</v>
+        <v>0.8081326578182626</v>
       </c>
       <c r="O5">
-        <v>0.8422585640705904</v>
+        <v>0.4947560225227221</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5009980219919044</v>
+        <v>1.572479068761169</v>
       </c>
       <c r="C6">
-        <v>0.1526819035991025</v>
+        <v>0.3975322754322974</v>
       </c>
       <c r="D6">
-        <v>0.0172358997609976</v>
+        <v>0.05448016607986972</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2814747011655143</v>
+        <v>0.2101993742286226</v>
       </c>
       <c r="G6">
-        <v>0.1474509776035191</v>
+        <v>0.1265509467911627</v>
       </c>
       <c r="H6">
-        <v>0.3244516868229539</v>
+        <v>0.1308697720583325</v>
       </c>
       <c r="I6">
-        <v>0.2127969599684434</v>
+        <v>0.07846896098926237</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.794954087231531</v>
+        <v>0.806569613385534</v>
       </c>
       <c r="O6">
-        <v>0.8423987749908832</v>
+        <v>0.4934305165981385</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5254006400535332</v>
+        <v>1.647609470780054</v>
       </c>
       <c r="C7">
-        <v>0.1581645729611125</v>
+        <v>0.4140338563689454</v>
       </c>
       <c r="D7">
-        <v>0.01808415525296425</v>
+        <v>0.05714698814361441</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2820869582545313</v>
+        <v>0.2163871047074579</v>
       </c>
       <c r="G7">
-        <v>0.1477905701231208</v>
+        <v>0.1304824996797791</v>
       </c>
       <c r="H7">
-        <v>0.3236422474430611</v>
+        <v>0.1313037867376892</v>
       </c>
       <c r="I7">
-        <v>0.2114963028701933</v>
+        <v>0.07691190600381503</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7979915486323108</v>
+        <v>0.8174714648177854</v>
       </c>
       <c r="O7">
-        <v>0.8414916275979039</v>
+        <v>0.5027628331789344</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6326420283974414</v>
+        <v>1.978251417968153</v>
       </c>
       <c r="C8">
-        <v>0.1822179266479509</v>
+        <v>0.4866040098338544</v>
       </c>
       <c r="D8">
-        <v>0.02181563358323046</v>
+        <v>0.06889657337132604</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2853328658738334</v>
+        <v>0.2448358229093301</v>
       </c>
       <c r="G8">
-        <v>0.1496686643855369</v>
+        <v>0.1487845511657966</v>
       </c>
       <c r="H8">
-        <v>0.3204758029657384</v>
+        <v>0.1338954308864118</v>
       </c>
       <c r="I8">
-        <v>0.2061495006915326</v>
+        <v>0.07082252451978555</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8120275249493716</v>
+        <v>0.8669193434196245</v>
       </c>
       <c r="O8">
-        <v>0.8391253561090082</v>
+        <v>0.5473639902619851</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8412468276662821</v>
+        <v>2.623943678886633</v>
       </c>
       <c r="C9">
-        <v>0.2288572764969103</v>
+        <v>0.6281086581695376</v>
       </c>
       <c r="D9">
-        <v>0.02908805310548956</v>
+        <v>0.09189606832067199</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.293657839131356</v>
+        <v>0.3053060796565106</v>
       </c>
       <c r="G9">
-        <v>0.1547247636158673</v>
+        <v>0.188619457200744</v>
       </c>
       <c r="H9">
-        <v>0.3157234491850076</v>
+        <v>0.1416398915195174</v>
       </c>
       <c r="I9">
-        <v>0.1970813996644072</v>
+        <v>0.06196144609159582</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8417945568806431</v>
+        <v>0.9691035514503739</v>
       </c>
       <c r="O9">
-        <v>0.8403870249187122</v>
+        <v>0.6487034329727521</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9933982818477034</v>
+        <v>3.097284270191892</v>
       </c>
       <c r="C10">
-        <v>0.2627828106576828</v>
+        <v>0.7316862474353911</v>
       </c>
       <c r="D10">
-        <v>0.03440162092563526</v>
+        <v>0.1087958427715847</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3009741935003376</v>
+        <v>0.3531578188884978</v>
       </c>
       <c r="G10">
-        <v>0.1592858169774658</v>
+        <v>0.2208071282307955</v>
       </c>
       <c r="H10">
-        <v>0.3131202719518029</v>
+        <v>0.1491819336840763</v>
       </c>
       <c r="I10">
-        <v>0.1912876775211103</v>
+        <v>0.05759431217970246</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8650086772045285</v>
+        <v>1.047770773522814</v>
       </c>
       <c r="O10">
-        <v>0.8449320818470341</v>
+        <v>0.7331920783196608</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.062359323261319</v>
+        <v>3.312537741096151</v>
       </c>
       <c r="C11">
-        <v>0.2781389207150085</v>
+        <v>0.7787491847156787</v>
       </c>
       <c r="D11">
-        <v>0.03681209182119005</v>
+        <v>0.1164909102604526</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3045643417628128</v>
+        <v>0.3758029722021803</v>
       </c>
       <c r="G11">
-        <v>0.1615465268500031</v>
+        <v>0.2362046297826979</v>
       </c>
       <c r="H11">
-        <v>0.3121289647803067</v>
+        <v>0.1530685939669638</v>
       </c>
       <c r="I11">
-        <v>0.188841585576963</v>
+        <v>0.05613426816637279</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8758567141804292</v>
+        <v>1.084435950517246</v>
       </c>
       <c r="O11">
-        <v>0.8477897700012988</v>
+        <v>0.7741739337708822</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.088435018808752</v>
+        <v>3.394050561223366</v>
       </c>
       <c r="C12">
-        <v>0.2839424681983189</v>
+        <v>0.7965650009568321</v>
       </c>
       <c r="D12">
-        <v>0.03772386537275452</v>
+        <v>0.1194064133344455</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3059615648615974</v>
+        <v>0.3845158272200493</v>
       </c>
       <c r="G12">
-        <v>0.1624294691628592</v>
+        <v>0.2421544043531796</v>
       </c>
       <c r="H12">
-        <v>0.3117813207257498</v>
+        <v>0.1546106056038354</v>
       </c>
       <c r="I12">
-        <v>0.1879426520683509</v>
+        <v>0.05566250594636202</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8800055340223167</v>
+        <v>1.098454947999429</v>
       </c>
       <c r="O12">
-        <v>0.8489858306335094</v>
+        <v>0.7900912446274475</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.082820887443688</v>
+        <v>3.376495082139684</v>
       </c>
       <c r="C13">
-        <v>0.2826930878401015</v>
+        <v>0.7927282740541841</v>
       </c>
       <c r="D13">
-        <v>0.03752754486339427</v>
+        <v>0.1187784304026422</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3056589698373742</v>
+        <v>0.3826330471304331</v>
       </c>
       <c r="G13">
-        <v>0.1622381150015926</v>
+        <v>0.2408675447891611</v>
       </c>
       <c r="H13">
-        <v>0.311854958165668</v>
+        <v>0.1542753054634431</v>
       </c>
       <c r="I13">
-        <v>0.1881350355964653</v>
+        <v>0.05576041132027321</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8791101998937734</v>
+        <v>1.095429578520267</v>
       </c>
       <c r="O13">
-        <v>0.8487231664324639</v>
+        <v>0.7866449196937424</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.064505366044727</v>
+        <v>3.319243761630617</v>
       </c>
       <c r="C14">
-        <v>0.2786166145941991</v>
+        <v>0.7802150085184394</v>
       </c>
       <c r="D14">
-        <v>0.03688712473451972</v>
+        <v>0.1167307364407861</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3046785360630366</v>
+        <v>0.3765169576643004</v>
       </c>
       <c r="G14">
-        <v>0.1616186279617366</v>
+        <v>0.2366916727235662</v>
       </c>
       <c r="H14">
-        <v>0.3120998078679094</v>
+        <v>0.1531940211619371</v>
       </c>
       <c r="I14">
-        <v>0.1887670811121609</v>
+        <v>0.05609379820362825</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8761972230713297</v>
+        <v>1.08558655328514</v>
       </c>
       <c r="O14">
-        <v>0.8478858858903777</v>
+        <v>0.7754752865870387</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.053281528789569</v>
+        <v>3.284176156958779</v>
       </c>
       <c r="C15">
-        <v>0.2761181492976732</v>
+        <v>0.7725495675695129</v>
       </c>
       <c r="D15">
-        <v>0.03649471447552344</v>
+        <v>0.1154766817952719</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3040829047342157</v>
+        <v>0.3727889513701754</v>
       </c>
       <c r="G15">
-        <v>0.1612426762299606</v>
+        <v>0.2341496587771914</v>
       </c>
       <c r="H15">
-        <v>0.3122533984074707</v>
+        <v>0.1525409911973412</v>
       </c>
       <c r="I15">
-        <v>0.189157791719607</v>
+        <v>0.05630873722863505</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8744182532360867</v>
+        <v>1.079575211005135</v>
       </c>
       <c r="O15">
-        <v>0.8473878713882783</v>
+        <v>0.7686864252355576</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9888862525637023</v>
+        <v>3.083216453124237</v>
       </c>
       <c r="C16">
-        <v>0.2617776702963681</v>
+        <v>0.728609634106391</v>
       </c>
       <c r="D16">
-        <v>0.03424395139386149</v>
+        <v>0.1082931405951086</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3007448433851678</v>
+        <v>0.3516965235339171</v>
       </c>
       <c r="G16">
-        <v>0.1591418257863069</v>
+        <v>0.219816943983858</v>
       </c>
       <c r="H16">
-        <v>0.3131889381018382</v>
+        <v>0.1489374963540442</v>
       </c>
       <c r="I16">
-        <v>0.1914513570581846</v>
+        <v>0.05770078127788558</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8643054826042373</v>
+        <v>1.045393003902376</v>
       </c>
       <c r="O16">
-        <v>0.8447612500049928</v>
+        <v>0.7305677787883411</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9493155673989122</v>
+        <v>2.959923590557707</v>
       </c>
       <c r="C17">
-        <v>0.2529602734230707</v>
+        <v>0.7016411834832468</v>
       </c>
       <c r="D17">
-        <v>0.03286142564091676</v>
+        <v>0.1038884813428069</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2987641669610426</v>
+        <v>0.3389896425390972</v>
       </c>
       <c r="G17">
-        <v>0.1579007219020099</v>
+        <v>0.2112249801293302</v>
       </c>
       <c r="H17">
-        <v>0.3138122691027121</v>
+        <v>0.1468468461672146</v>
       </c>
       <c r="I17">
-        <v>0.1929069911525882</v>
+        <v>0.05869338418249548</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8581749963170751</v>
+        <v>1.024654216471887</v>
       </c>
       <c r="O17">
-        <v>0.8433524848679355</v>
+        <v>0.7078579476633564</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.926531817040825</v>
+        <v>2.889001330361168</v>
       </c>
       <c r="C18">
-        <v>0.2478815385548501</v>
+        <v>0.6861243315004799</v>
       </c>
       <c r="D18">
-        <v>0.03206560634355071</v>
+        <v>0.1013556907340813</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.2976495828221459</v>
+        <v>0.3317628181723151</v>
       </c>
       <c r="G18">
-        <v>0.1572043582929652</v>
+        <v>0.2063535284173028</v>
       </c>
       <c r="H18">
-        <v>0.3141889481701554</v>
+        <v>0.1456869611577858</v>
       </c>
       <c r="I18">
-        <v>0.1937620643096984</v>
+        <v>0.05931352862444861</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8546760221011738</v>
+        <v>1.012808031402187</v>
       </c>
       <c r="O18">
-        <v>0.8426165526518474</v>
+        <v>0.6950336191879813</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9188136118387433</v>
+        <v>2.864986660998454</v>
       </c>
       <c r="C19">
-        <v>0.2461607426611181</v>
+        <v>0.6808696215655061</v>
       </c>
       <c r="D19">
-        <v>0.03179604962157612</v>
+        <v>0.1004982287079912</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.297276435618528</v>
+        <v>0.3293296553570997</v>
       </c>
       <c r="G19">
-        <v>0.1569715807657843</v>
+        <v>0.2047159231124382</v>
       </c>
       <c r="H19">
-        <v>0.3143196033093716</v>
+        <v>0.1453014224893749</v>
       </c>
       <c r="I19">
-        <v>0.1940546368584357</v>
+        <v>0.05953179327340052</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8534960021557367</v>
+        <v>1.008810993060791</v>
       </c>
       <c r="O19">
-        <v>0.8423801395560986</v>
+        <v>0.6907314112061442</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9535304051382241</v>
+        <v>2.973049020316921</v>
       </c>
       <c r="C20">
-        <v>0.2538996488564464</v>
+        <v>0.7045125569690072</v>
       </c>
       <c r="D20">
-        <v>0.03300866317216844</v>
+        <v>0.1043572937321642</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2989724619415384</v>
+        <v>0.3403337606074004</v>
       </c>
       <c r="G20">
-        <v>0.158031028766743</v>
+        <v>0.2121322472151377</v>
       </c>
       <c r="H20">
-        <v>0.3137440353844241</v>
+        <v>0.1470649572560987</v>
       </c>
       <c r="I20">
-        <v>0.1927501902697362</v>
+        <v>0.05858258700333252</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8588247938183571</v>
+        <v>1.026853328208702</v>
       </c>
       <c r="O20">
-        <v>0.8434947529715799</v>
+        <v>0.7102506137268989</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.069886134799731</v>
+        <v>3.336059740223334</v>
       </c>
       <c r="C21">
-        <v>0.279814288588625</v>
+        <v>0.7838906008500999</v>
       </c>
       <c r="D21">
-        <v>0.03707525976754766</v>
+        <v>0.1173321476242393</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.3049654893457756</v>
+        <v>0.3783095714619975</v>
       </c>
       <c r="G21">
-        <v>0.1617998562795648</v>
+        <v>0.2379149094285609</v>
       </c>
       <c r="H21">
-        <v>0.3120271366156189</v>
+        <v>0.1535096762525185</v>
       </c>
       <c r="I21">
-        <v>0.188580691014522</v>
+        <v>0.05599362824934317</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8770517286964719</v>
+        <v>1.088473964482333</v>
       </c>
       <c r="O21">
-        <v>0.8481287214794264</v>
+        <v>0.7787450025644347</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.145706888182247</v>
+        <v>3.573320022265705</v>
       </c>
       <c r="C22">
-        <v>0.2966838986110645</v>
+        <v>0.8357354601116924</v>
       </c>
       <c r="D22">
-        <v>0.03972704729879695</v>
+        <v>0.1258212436616901</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.3091021148729993</v>
+        <v>0.4039369558931867</v>
       </c>
       <c r="G22">
-        <v>0.1644196273738032</v>
+        <v>0.2554647268395129</v>
       </c>
       <c r="H22">
-        <v>0.3110667503033326</v>
+        <v>0.1581333218480054</v>
       </c>
       <c r="I22">
-        <v>0.1860151348963921</v>
+        <v>0.05477716230488028</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8892022808718139</v>
+        <v>1.129535891526743</v>
       </c>
       <c r="O22">
-        <v>0.851821413065835</v>
+        <v>0.8258482513244303</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.105261092587284</v>
+        <v>3.446684678058489</v>
       </c>
       <c r="C23">
-        <v>0.2876865543257452</v>
+        <v>0.8080672064003807</v>
       </c>
       <c r="D23">
-        <v>0.03831230313872425</v>
+        <v>0.1212894301555849</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.3068741887903741</v>
+        <v>0.3901812400741562</v>
       </c>
       <c r="G23">
-        <v>0.1630070314580507</v>
+        <v>0.2460304476781658</v>
       </c>
       <c r="H23">
-        <v>0.3115645288870965</v>
+        <v>0.1556263122639407</v>
       </c>
       <c r="I23">
-        <v>0.1873697982358653</v>
+        <v>0.05538103978677</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8826956662326779</v>
+        <v>1.107545283734879</v>
       </c>
       <c r="O23">
-        <v>0.8497896893735515</v>
+        <v>0.8004833507486353</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9516249828677701</v>
+        <v>2.967115137556789</v>
       </c>
       <c r="C24">
-        <v>0.2534749867685093</v>
+        <v>0.7032144475722362</v>
       </c>
       <c r="D24">
-        <v>0.03294210015404531</v>
+        <v>0.1041453452250778</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2988782166130264</v>
+        <v>0.3397258410846362</v>
       </c>
       <c r="G24">
-        <v>0.1579720635810702</v>
+        <v>0.2117218601774979</v>
       </c>
       <c r="H24">
-        <v>0.3137748267904428</v>
+        <v>0.1469662185836782</v>
       </c>
       <c r="I24">
-        <v>0.1928210232350143</v>
+        <v>0.05863252468243729</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8585309408261281</v>
+        <v>1.025858871135739</v>
       </c>
       <c r="O24">
-        <v>0.8434302031271272</v>
+        <v>0.7091681696221173</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7850031685738372</v>
+        <v>2.449496910433766</v>
       </c>
       <c r="C25">
-        <v>0.2162985931587116</v>
+        <v>0.5899038592089312</v>
       </c>
       <c r="D25">
-        <v>0.02712569950052313</v>
+        <v>0.08567580223529347</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.2911953554688083</v>
+        <v>0.2883888881640218</v>
       </c>
       <c r="G25">
-        <v>0.1532089888308619</v>
+        <v>0.1773690452244381</v>
       </c>
       <c r="H25">
-        <v>0.3168530867345538</v>
+        <v>0.1392368413202689</v>
       </c>
       <c r="I25">
-        <v>0.199382368038064</v>
+        <v>0.06400220408872492</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8335040865935071</v>
+        <v>0.940860421846125</v>
       </c>
       <c r="O25">
-        <v>0.8394117711048068</v>
+        <v>0.6196450655478856</v>
       </c>
     </row>
   </sheetData>
